--- a/ignore_prac.xlsx
+++ b/ignore_prac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuki\Documents\GitHub\GitPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A07DE5-06DD-4A11-B45E-0A0137CAFC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CE8CC5-0037-4DB5-B6BC-FBAF9CD9A555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1DD3E1C7-0B8D-4917-B116-B9F8E285B774}"/>
   </bookViews>
@@ -33,6 +33,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76,9 +93,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,12 +434,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D268E11B-A557-48C4-B418-994EA88E1602}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
